--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\TablePet\_ConfigExcels\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -91,9 +91,6 @@
     <t>注释</t>
   </si>
   <si>
-    <t>Enums.Com_ParamType</t>
-  </si>
-  <si>
     <t>,</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -138,6 +135,10 @@
   </si>
   <si>
     <t>资源列表</t>
+  </si>
+  <si>
+    <t>Enums.Com.ParamType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -222,11 +223,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -504,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B11" sqref="B11:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -545,13 +546,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -611,7 +612,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -619,14 +620,14 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -634,10 +635,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
         <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -645,10 +646,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
         <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -656,10 +657,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
         <v>27</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -667,10 +668,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
         <v>29</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
       </c>
       <c r="J8">
         <v>6</v>
@@ -678,10 +679,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
         <v>31</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
       </c>
       <c r="J9">
         <v>11</v>
@@ -689,14 +690,23 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
         <v>33</v>
-      </c>
-      <c r="I10" t="s">
-        <v>34</v>
       </c>
       <c r="J10">
         <v>16</v>
       </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -704,6 +714,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -138,6 +138,54 @@
   </si>
   <si>
     <t>Enums.Com.ParamType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRASH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首领</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器宝箱怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELITE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REWARDWEAPON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enums.Enemy.Type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -505,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:K14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -518,7 +566,7 @@
     <col min="4" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
     <col min="9" max="9" width="17.875" customWidth="1"/>
     <col min="10" max="10" width="12.125" customWidth="1"/>
     <col min="11" max="11" width="15.125" customWidth="1"/>
@@ -700,13 +748,71 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -137,55 +137,55 @@
     <t>资源列表</t>
   </si>
   <si>
+    <t>,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRASH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首领</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器宝箱怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELITE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REWARDWEAPON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enums.Enemy.Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Enums.Com.ParamType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRASH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精英</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>首领</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器宝箱怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELITE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>REWARDWEAPON</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enums.Enemy.Type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +556,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -659,8 +659,8 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>34</v>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -758,13 +758,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -783,10 +783,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -794,10 +794,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J14">
         <v>3</v>
@@ -805,10 +805,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J15">
         <v>4</v>

--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -186,6 +186,59 @@
   </si>
   <si>
     <t>Enums.Com.ParamType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums.Com.Quality</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PURPLE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORANGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>军用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机密</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -553,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -814,6 +867,62 @@
         <v>4</v>
       </c>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>##var</t>
   </si>
@@ -239,6 +239,18 @@
   </si>
   <si>
     <t>机密</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enums.Com.CondType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +292,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +332,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -329,6 +347,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -606,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -800,70 +824,70 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="b">
+      <c r="C11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="b">
+      <c r="D11" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H12" s="3" t="s">
+    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H13" s="3" t="s">
+    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H14" s="3" t="s">
+    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H15" s="3" t="s">
+    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="5">
         <v>4</v>
       </c>
     </row>
@@ -890,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H17" s="3" t="s">
         <v>51</v>
       </c>
@@ -901,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H18" s="3" t="s">
         <v>52</v>
       </c>
@@ -912,7 +936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H19" s="3" t="s">
         <v>53</v>
       </c>
@@ -921,6 +945,40 @@
       </c>
       <c r="J19">
         <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -246,11 +246,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>WEAPON</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
+    <t>WEAPONUNLOCK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPONLEVEL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器等级（战斗前）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁武器（战斗中）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -345,14 +353,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -630,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -644,7 +652,7 @@
     <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="21.625" customWidth="1"/>
     <col min="10" max="10" width="12.125" customWidth="1"/>
     <col min="11" max="11" width="15.125" customWidth="1"/>
   </cols>
@@ -671,13 +679,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -824,70 +832,70 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="5" t="b">
+      <c r="C11" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="5" t="b">
+      <c r="D11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H12" s="6" t="s">
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="6" t="s">
+    <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="6" t="s">
+    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="6" t="s">
+    <row r="15" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>4</v>
       </c>
     </row>
@@ -947,40 +955,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="5" t="b">
+      <c r="C20" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D20" s="5" t="b">
+      <c r="D20" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H21" s="6" t="s">
+    <row r="21" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J21" s="5">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="I22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
   <si>
     <t>##var</t>
   </si>
@@ -259,6 +259,95 @@
   </si>
   <si>
     <t>解锁武器（战斗中）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用品质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡组效果类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPONRAW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPONCOLUMN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹加列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器连发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPONDAMAGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器增伤（%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPONCD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器冷却（%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>武器id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,数量</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器id（-1为全部）,数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地球恢复（%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enums.Card.EffectsType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -638,56 +727,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="46.5" customWidth="1"/>
-    <col min="4" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="21.625" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="46.5" customWidth="1"/>
+    <col min="5" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="21.625" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,313 +788,423 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="b">
+      <c r="C4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="b">
+      <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H5" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H6" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>25</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H7" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
         <v>26</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>27</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H8" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
         <v>28</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>29</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H9" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
         <v>30</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>31</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H10" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
         <v>32</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>33</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="4" t="b">
+      <c r="C11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="4" t="b">
+      <c r="E11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H12" s="5" t="s">
+    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="5" t="s">
+    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="5" t="s">
+    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="5" t="s">
+    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="b">
+      <c r="C16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="b">
+      <c r="E16" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H17" s="3" t="s">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H18" s="3" t="s">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H19" s="3" t="s">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="4" t="b">
+      <c r="C20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D20" s="4" t="b">
+      <c r="E20" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H21" s="5" t="s">
+    <row r="21" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H22" s="5" t="s">
+    <row r="22" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="I1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
   <si>
     <t>##var</t>
   </si>
@@ -348,6 +348,34 @@
   </si>
   <si>
     <t>HEAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enums.Item.ItemType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPONPIECE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常无逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器碎片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器碎片会根据数量动态改变稀有度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -727,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1202,6 +1230,58 @@
         <v>77</v>
       </c>
     </row>
+    <row r="31" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I32" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="9:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I33" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" s="4">
+        <v>2</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="9:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I1:M1"/>

--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
   <si>
     <t>##var</t>
   </si>
@@ -376,6 +376,58 @@
   </si>
   <si>
     <t>武器碎片会根据数量动态改变稀有度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GREEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝密</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHEST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱会开出随机数量的随机道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enums.Com.ResourceType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落包</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -755,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1053,22 +1105,25 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>54</v>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="I17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" t="s">
+        <v>89</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>55</v>
+      <c r="I18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" t="s">
+        <v>54</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1076,212 +1131,303 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="4" t="b">
+      <c r="D22" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E20" s="4" t="b">
+      <c r="E22" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K22" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I21" s="5" t="s">
+    <row r="23" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K23" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I22" s="5" t="s">
+    <row r="24" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K24" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D24" t="b">
+      <c r="D26" t="b">
         <v>0</v>
       </c>
-      <c r="E24" t="b">
+      <c r="E26" t="b">
         <v>1</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K24">
+      <c r="K26">
         <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I27" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I28" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I31" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>5</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="5" t="s">
+    <row r="33" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="4" t="b">
+      <c r="D33" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E31" s="4" t="b">
+      <c r="E33" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J33" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K33" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I32" s="5" t="s">
+    <row r="34" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I34" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K34" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="9:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I33" s="5" t="s">
+    <row r="35" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I35" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J35" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K35" s="4">
         <v>2</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L35" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="9:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I36" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K36" s="4">
+        <v>3</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="L41" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I1:M1"/>

--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -15,24 +15,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
   <si>
     <t>##var</t>
   </si>
@@ -428,6 +415,30 @@
   </si>
   <si>
     <t>掉落包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enums.Drop.DropType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据权重随机一个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据概率瀑布计算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEIGHT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -807,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1428,6 +1439,56 @@
       <c r="J41" s="3"/>
       <c r="L41" s="3"/>
     </row>
+    <row r="42" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I43" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I44" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K44" s="4">
+        <v>2</v>
+      </c>
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I1:M1"/>

--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="109">
   <si>
     <t>##var</t>
   </si>
@@ -439,6 +439,14 @@
   </si>
   <si>
     <t>PROP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUNGEON_PASS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡等级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -818,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1221,56 +1229,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
+    <row r="25" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I28" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>75</v>
@@ -1278,27 +1283,27 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I29" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I30" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>76</v>
@@ -1306,189 +1311,203 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I32" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K31">
+      <c r="K32">
         <v>5</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="5" t="s">
+    <row r="34" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="D34" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I34" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="K34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I35" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K35" s="4">
-        <v>2</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I36" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K36" s="4">
+        <v>2</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I37" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="J37" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K37" s="4">
         <v>3</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L37" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
+    <row r="38" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I39" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I41" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K40">
+      <c r="K41">
         <v>2</v>
       </c>
-      <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="5" t="s">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" s="5" t="s">
+      <c r="D43" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I43" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="J43" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I43" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="K43" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I44" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I45" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="J45" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K45" s="4">
         <v>2</v>
       </c>
-      <c r="L44" s="5"/>
-    </row>
-    <row r="45" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I1:M1"/>

--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
   <si>
     <t>##var</t>
   </si>
@@ -447,6 +447,46 @@
   </si>
   <si>
     <t>关卡等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOAD_DAY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录天数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enums.Com.TriggerType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用时点触发类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_STATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换到指定UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡X开始</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡X结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUNGEON_START</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUNGEON_OVER</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -826,16 +866,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="46.5" customWidth="1"/>
     <col min="5" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="9.375" customWidth="1"/>
@@ -1240,274 +1280,355 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
+    <row r="26" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I29" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I31" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K32">
+      <c r="K35">
         <v>5</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="5" t="s">
+    <row r="37" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="D37" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I37" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J37" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I35" s="5" t="s">
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I38" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K35" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I36" s="5" t="s">
+      <c r="K38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I39" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="J39" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K39" s="4">
         <v>2</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L39" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I37" s="5" t="s">
+    <row r="40" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I40" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J40" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K40" s="4">
         <v>3</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="L40" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="3" t="s">
+    <row r="41" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3" t="s">
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I40" s="3" t="s">
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I43" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I41" s="3" t="s">
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I44" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K41">
+      <c r="K44">
         <v>2</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="5" t="s">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43" s="5" t="s">
+      <c r="D46" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I46" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J43" s="5" t="s">
+      <c r="J46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K43" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I44" s="5" t="s">
+      <c r="K46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I47" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="J47" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="K44" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I45" s="5" t="s">
+      <c r="K47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I48" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J48" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K48" s="4">
         <v>2</v>
       </c>
-      <c r="L45" s="5"/>
-    </row>
-    <row r="46" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I51" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I1:M1"/>

--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="121">
   <si>
     <t>##var</t>
   </si>
@@ -487,6 +487,14 @@
   </si>
   <si>
     <t>DUNGEON_OVER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INCODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码写死</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -866,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1629,6 +1637,17 @@
       </c>
       <c r="L53" s="3"/>
     </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I1:M1"/>

--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
   <si>
     <t>##var</t>
   </si>
@@ -495,6 +495,14 @@
   </si>
   <si>
     <t>代码写死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总伤害（战斗中）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTALBATTLEDAMAGE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -876,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -888,7 +896,7 @@
     <col min="5" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="9.375" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="21.75" customWidth="1"/>
     <col min="10" max="10" width="21.625" customWidth="1"/>
     <col min="11" max="11" width="12.125" customWidth="1"/>
     <col min="12" max="12" width="15.125" customWidth="1"/>
@@ -1300,8 +1308,15 @@
       </c>
     </row>
     <row r="27" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="I27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K27" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I28" s="5"/>

--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="129">
   <si>
     <t>##var</t>
   </si>
@@ -503,6 +503,56 @@
   </si>
   <si>
     <t>TOTALBATTLEDAMAGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0失败，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1胜利</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATTLE_STATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATTLE_LOSE_REASON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗失败原因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1是主动放弃，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2是被动空血</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -882,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1319,59 +1369,69 @@
       </c>
     </row>
     <row r="28" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
+      <c r="I28" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" s="4">
+        <v>6</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K29" s="4">
+        <v>7</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I32" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>75</v>
@@ -1379,27 +1439,27 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I33" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I34" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>76</v>
@@ -1407,259 +1467,273 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K35">
+      <c r="K36">
         <v>5</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
+    <row r="38" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" s="5" t="s">
+      <c r="D38" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J38" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I38" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="K38" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I39" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K39" s="4">
-        <v>2</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K40" s="4">
+        <v>2</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I41" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="J41" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K41" s="4">
         <v>3</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="L41" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B42" s="3" t="s">
+    <row r="42" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I43" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I44" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K44">
+      <c r="K45">
         <v>2</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="5" t="s">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G46" s="5" t="s">
+      <c r="D47" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I47" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="J47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K46" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I47" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="K47" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I48" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I49" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="J49" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K49" s="4">
         <v>2</v>
       </c>
-      <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B50" s="3" t="s">
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D50" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" t="b">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I51" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I52" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L52" s="3"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I53" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L53" s="3"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I54" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I55" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J55" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="K54">
+      <c r="K55">
         <v>4</v>
       </c>
     </row>

--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -466,10 +466,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>UI_STATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>切换到指定UI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -487,10 +483,6 @@
   </si>
   <si>
     <t>DUNGEON_OVER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INCODE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -553,6 +545,14 @@
       </rPr>
       <t>2是被动空血</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INCODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_STATE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -935,7 +935,7 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1359,10 +1359,10 @@
     </row>
     <row r="27" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I27" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K27" s="4">
         <v>5</v>
@@ -1370,30 +1370,30 @@
     </row>
     <row r="28" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I28" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K28" s="4">
         <v>6</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I29" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K29" s="4">
         <v>7</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1692,10 +1692,10 @@
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I52" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -1704,10 +1704,10 @@
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I53" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -1716,10 +1716,10 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I54" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="K54">
         <v>3</v>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I55" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K55">
         <v>4</v>

--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="125">
   <si>
     <t>##var</t>
   </si>
@@ -78,8 +86,13 @@
     <t>注释</t>
   </si>
   <si>
+    <t>Enums.Com.ParamType</t>
+  </si>
+  <si>
+    <t>通用参数</t>
+  </si>
+  <si>
     <t>,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>INT</t>
@@ -124,59 +137,50 @@
     <t>资源列表</t>
   </si>
   <si>
-    <t>,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Enums.Enemy.Type</t>
+  </si>
+  <si>
+    <t>怪物类型</t>
   </si>
   <si>
     <t>NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TRASH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>小兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELITE</t>
   </si>
   <si>
     <t>精英</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS</t>
   </si>
   <si>
     <t>首领</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REWARDWEAPON</t>
   </si>
   <si>
     <t>武器宝箱怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELITE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>REWARDWEAPON</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enums.Enemy.Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enums.Com.ParamType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>E</t>
     </r>
     <r>
@@ -184,124 +188,158 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>nums.Com.Quality</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用品质</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>普通</t>
   </si>
   <si>
     <t>BLUE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用</t>
   </si>
   <si>
     <t>PURPLE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>军用</t>
   </si>
   <si>
     <t>ORANGE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>民用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>军用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>机密</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>绝密</t>
   </si>
   <si>
     <t>Enums.Com.CondType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用条件</t>
   </si>
   <si>
     <t>WEAPONUNLOCK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁武器（战斗中）</t>
   </si>
   <si>
     <t>WEAPONLEVEL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>武器等级（战斗前）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁武器（战斗中）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用品质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用条件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUNGEON_PASS</t>
+  </si>
+  <si>
+    <t>关卡等级</t>
+  </si>
+  <si>
+    <t>LOAD_DAY</t>
+  </si>
+  <si>
+    <t>登录天数</t>
+  </si>
+  <si>
+    <t>TOTALBATTLEDAMAGE</t>
+  </si>
+  <si>
+    <t>总伤害（战斗中）</t>
+  </si>
+  <si>
+    <t>BATTLE_STATE</t>
+  </si>
+  <si>
+    <t>战斗结果</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0失败，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1胜利</t>
+    </r>
+  </si>
+  <si>
+    <t>BATTLE_LOSE_REASON</t>
+  </si>
+  <si>
+    <t>战斗失败原因</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1是主动放弃，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2是被动空血</t>
+    </r>
+  </si>
+  <si>
+    <t>Enums.Card.EffectsType</t>
   </si>
   <si>
     <t>卡组效果类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEAPONRAW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>WEAPONCOLUMN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>子弹加列</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器连发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEAPONDAMAGE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器增伤（%）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEAPONCD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器冷却（%）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>武器id</t>
     </r>
     <r>
@@ -309,258 +347,150 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>,数量</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPONROW</t>
+  </si>
+  <si>
+    <t>武器连发</t>
+  </si>
+  <si>
+    <t>WEAPONDAMAGE</t>
+  </si>
+  <si>
+    <t>武器增伤（%）</t>
   </si>
   <si>
     <t>武器id（-1为全部）,数值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPONCD</t>
+  </si>
+  <si>
+    <t>武器冷却（%）</t>
+  </si>
+  <si>
+    <t>HEAL</t>
+  </si>
+  <si>
+    <t>地球恢复（%）</t>
   </si>
   <si>
     <t>血量百分比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地球恢复（%）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enums.Card.EffectsType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Enums.Item.ItemType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>碎片类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NORMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常无逻辑</t>
   </si>
   <si>
     <t>WEAPONPIECE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常无逻辑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>武器碎片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>武器碎片会根据数量动态改变稀有度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GREEN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝密</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RED</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CHEST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>宝箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>宝箱会开出随机数量的随机道具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Enums.Com.ResourceType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>资源类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ITEM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
   </si>
   <si>
     <t>DROP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>掉落包</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Enums.Drop.DropType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>掉落类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEIGHT</t>
   </si>
   <si>
     <t>根据权重随机一个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROP</t>
   </si>
   <si>
     <t>根据概率瀑布计算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEIGHT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DUNGEON_PASS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOAD_DAY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录天数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Enums.Com.TriggerType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>通用时点触发类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUNGEON_START</t>
+  </si>
+  <si>
+    <t>关卡X开始</t>
+  </si>
+  <si>
+    <t>DUNGEON_OVER</t>
+  </si>
+  <si>
+    <t>关卡X结束</t>
+  </si>
+  <si>
+    <t>UI_STATE</t>
   </si>
   <si>
     <t>切换到指定UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡X开始</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡X结束</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DUNGEON_START</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DUNGEON_OVER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INCODE</t>
   </si>
   <si>
     <t>代码写死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总伤害（战斗中）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOTALBATTLEDAMAGE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0失败，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1胜利</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BATTLE_STATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BATTLE_LOSE_REASON</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗失败原因</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1是主动放弃，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2是被动空血</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INCODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI_STATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,19 +502,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,18 +659,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -627,9 +879,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -638,37 +1132,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 4" xfId="1"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 4" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -926,19 +1464,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
@@ -952,27 +1490,27 @@
     <col min="12" max="12" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -983,70 +1521,70 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="99" customHeight="1" spans="1:13">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>62</v>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1054,161 +1592,161 @@
       <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>19</v>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="9:11">
       <c r="I5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="9:11">
       <c r="I6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="9:11">
       <c r="I7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="9:11">
       <c r="I8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="9:11">
       <c r="I9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K9">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="9:11">
       <c r="I10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K10">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" s="1" customFormat="1" spans="2:11">
       <c r="B11" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="4" t="b">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="4" t="b">
+      <c r="E11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="4">
+        <v>39</v>
+      </c>
+      <c r="K11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" s="1" customFormat="1" spans="9:11">
       <c r="I12" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="4">
+        <v>41</v>
+      </c>
+      <c r="K12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" s="1" customFormat="1" spans="9:11">
       <c r="I13" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="4">
+        <v>43</v>
+      </c>
+      <c r="K13" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" s="1" customFormat="1" spans="9:11">
       <c r="I14" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="4">
+        <v>45</v>
+      </c>
+      <c r="K14" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" s="1" customFormat="1" spans="9:11">
       <c r="I15" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="4">
+        <v>47</v>
+      </c>
+      <c r="K15" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>64</v>
+    <row r="16" spans="2:11">
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1216,193 +1754,193 @@
       <c r="E16" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>50</v>
+      <c r="G16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="G17" s="3"/>
+    <row r="17" spans="2:11">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="G17" s="4"/>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:11">
       <c r="I18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" s="3" t="s">
+    <row r="19" spans="9:11">
+      <c r="I19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>55</v>
       </c>
       <c r="K19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="3" t="s">
+    <row r="20" spans="9:11">
+      <c r="I20" s="4" t="s">
         <v>56</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="K20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I21" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>90</v>
+    <row r="21" spans="9:11">
+      <c r="I21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="K21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" s="1" customFormat="1" spans="2:11">
       <c r="B22" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="9:11">
+      <c r="I23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="9:11">
+      <c r="I24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K24" s="4">
+      <c r="K24" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" s="1" customFormat="1" spans="9:11">
       <c r="I25" s="5" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="K25" s="4">
+        <v>67</v>
+      </c>
+      <c r="K25" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" s="1" customFormat="1" spans="9:11">
       <c r="I26" s="5" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" s="4">
+        <v>69</v>
+      </c>
+      <c r="K26" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" s="1" customFormat="1" spans="9:11">
       <c r="I27" s="5" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="K27" s="4">
+        <v>71</v>
+      </c>
+      <c r="K27" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" s="1" customFormat="1" spans="9:12">
       <c r="I28" s="5" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="K28" s="4">
+        <v>73</v>
+      </c>
+      <c r="K28" s="1">
         <v>6</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="9:12">
       <c r="I29" s="5" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K29" s="4">
+        <v>76</v>
+      </c>
+      <c r="K29" s="1">
         <v>7</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1"/>
+    <row r="31" spans="2:11">
+      <c r="B31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1410,161 +1948,161 @@
       <c r="E31" t="b">
         <v>1</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>36</v>
+      <c r="G31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>69</v>
+    <row r="32" spans="9:12">
+      <c r="I32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>70</v>
+      <c r="L32" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="9:12">
+      <c r="I33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="K33">
         <v>2</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>72</v>
+      <c r="L33" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="9:12">
+      <c r="I34" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="K34">
         <v>3</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I35" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>74</v>
+      <c r="L34" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="9:12">
+      <c r="I35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="K35">
         <v>4</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I36" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>78</v>
+      <c r="L35" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="9:12">
+      <c r="I36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="K36">
         <v>5</v>
       </c>
-      <c r="L36" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L36" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:11">
       <c r="B38" s="5" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="4" t="b">
+        <v>94</v>
+      </c>
+      <c r="D38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E38" s="4" t="b">
+      <c r="E38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="4">
+        <v>39</v>
+      </c>
+      <c r="K38" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" s="1" customFormat="1" spans="9:11">
       <c r="I39" s="5" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K39" s="4">
+        <v>96</v>
+      </c>
+      <c r="K39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" s="1" customFormat="1" spans="9:12">
       <c r="I40" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K40" s="4">
+        <v>98</v>
+      </c>
+      <c r="K40" s="1">
         <v>2</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="9:12">
       <c r="I41" s="5" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="K41" s="4">
+        <v>101</v>
+      </c>
+      <c r="K41" s="1">
         <v>3</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1"/>
+    <row r="43" spans="2:11">
+      <c r="B43" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -1572,104 +2110,104 @@
       <c r="E43" t="b">
         <v>1</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>36</v>
+      <c r="G43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I44" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>99</v>
+    <row r="44" spans="9:12">
+      <c r="I44" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I45" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>100</v>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="9:12">
+      <c r="I45" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="K45">
         <v>2</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="9:12">
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:11">
       <c r="B47" s="5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="4" t="b">
+        <v>110</v>
+      </c>
+      <c r="D47" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E47" s="4" t="b">
+      <c r="E47" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K47" s="4">
+        <v>39</v>
+      </c>
+      <c r="K47" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" s="1" customFormat="1" spans="9:11">
       <c r="I48" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K48" s="4">
+        <v>112</v>
+      </c>
+      <c r="K48" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" s="1" customFormat="1" spans="9:12">
       <c r="I49" s="5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K49" s="4">
+        <v>114</v>
+      </c>
+      <c r="K49" s="1">
         <v>2</v>
       </c>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B51" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>112</v>
+    <row r="50" s="1" customFormat="1"/>
+    <row r="51" spans="2:11">
+      <c r="B51" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -1677,61 +2215,61 @@
       <c r="E51" t="b">
         <v>1</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>36</v>
+      <c r="G51" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I52" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>114</v>
+    <row r="52" spans="9:12">
+      <c r="I52" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I53" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>115</v>
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="9:12">
+      <c r="I53" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="K53">
         <v>2</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I54" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>113</v>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="9:12">
+      <c r="I54" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="K54">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I55" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>118</v>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="9:11">
+      <c r="I55" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="K55">
         <v>4</v>
@@ -1741,8 +2279,8 @@
   <mergeCells count="1">
     <mergeCell ref="I1:M1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="128">
   <si>
     <t>##var</t>
   </si>
@@ -479,18 +484,24 @@
   <si>
     <t>代码写死</t>
   </si>
+  <si>
+    <t>PLAYAD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看完广告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是成功，0是失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,151 +517,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,204 +532,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -879,256 +566,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1150,63 +595,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="49"/>
+    <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1464,19 +868,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
@@ -1490,7 +894,7 @@
     <col min="12" max="12" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1521,7 +925,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1548,7 +952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="99" customHeight="1" spans="1:13">
+    <row r="3" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1579,7 +983,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1605,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="9:11">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
         <v>24</v>
       </c>
@@ -1616,7 +1020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="9:11">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
         <v>26</v>
       </c>
@@ -1627,7 +1031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="9:11">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I7" t="s">
         <v>28</v>
       </c>
@@ -1638,7 +1042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="9:11">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I8" t="s">
         <v>30</v>
       </c>
@@ -1649,7 +1053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="9:11">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
         <v>32</v>
       </c>
@@ -1660,7 +1064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="9:11">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I10" t="s">
         <v>34</v>
       </c>
@@ -1671,7 +1075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="2:11">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>36</v>
       </c>
@@ -1697,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="9:11">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I12" s="5" t="s">
         <v>40</v>
       </c>
@@ -1708,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="9:11">
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I13" s="5" t="s">
         <v>42</v>
       </c>
@@ -1719,7 +1123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="9:11">
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I14" s="5" t="s">
         <v>44</v>
       </c>
@@ -1730,7 +1134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="9:11">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I15" s="5" t="s">
         <v>46</v>
       </c>
@@ -1741,7 +1145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>48</v>
       </c>
@@ -1767,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="G17" s="4"/>
@@ -1781,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="9:11">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
         <v>52</v>
       </c>
@@ -1792,7 +1196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="9:11">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I19" s="4" t="s">
         <v>54</v>
       </c>
@@ -1803,7 +1207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="9:11">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I20" s="4" t="s">
         <v>56</v>
       </c>
@@ -1814,7 +1218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="9:11">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I21" s="4" t="s">
         <v>58</v>
       </c>
@@ -1825,7 +1229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="2:11">
+    <row r="22" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>60</v>
       </c>
@@ -1851,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="9:11">
+    <row r="23" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I23" s="5" t="s">
         <v>62</v>
       </c>
@@ -1862,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="9:11">
+    <row r="24" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I24" s="5" t="s">
         <v>64</v>
       </c>
@@ -1873,7 +1277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="9:11">
+    <row r="25" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I25" s="5" t="s">
         <v>66</v>
       </c>
@@ -1884,7 +1288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="9:11">
+    <row r="26" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I26" s="5" t="s">
         <v>68</v>
       </c>
@@ -1895,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="9:11">
+    <row r="27" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I27" s="5" t="s">
         <v>70</v>
       </c>
@@ -1906,7 +1310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="9:12">
+    <row r="28" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I28" s="5" t="s">
         <v>72</v>
       </c>
@@ -1920,7 +1324,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="9:12">
+    <row r="29" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I29" s="5" t="s">
         <v>75</v>
       </c>
@@ -1934,8 +1338,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1"/>
-    <row r="31" spans="2:11">
+    <row r="30" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>78</v>
       </c>
@@ -1961,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="9:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I32" s="4" t="s">
         <v>80</v>
       </c>
@@ -1975,7 +1379,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="9:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I33" s="4" t="s">
         <v>83</v>
       </c>
@@ -1989,7 +1393,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="9:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I34" s="4" t="s">
         <v>85</v>
       </c>
@@ -2003,7 +1407,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="9:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I35" s="4" t="s">
         <v>88</v>
       </c>
@@ -2017,7 +1421,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="9:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I36" s="4" t="s">
         <v>90</v>
       </c>
@@ -2031,7 +1435,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="2:11">
+    <row r="38" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>93</v>
       </c>
@@ -2057,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="9:11">
+    <row r="39" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I39" s="5" t="s">
         <v>95</v>
       </c>
@@ -2068,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="9:12">
+    <row r="40" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I40" s="5" t="s">
         <v>97</v>
       </c>
@@ -2082,7 +1486,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="9:12">
+    <row r="41" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I41" s="5" t="s">
         <v>100</v>
       </c>
@@ -2096,8 +1500,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1"/>
-    <row r="43" spans="2:11">
+    <row r="42" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>103</v>
       </c>
@@ -2123,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="9:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I44" s="4" t="s">
         <v>105</v>
       </c>
@@ -2135,7 +1539,7 @@
       </c>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="9:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I45" s="4" t="s">
         <v>107</v>
       </c>
@@ -2147,12 +1551,12 @@
       </c>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="9:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" s="1" customFormat="1" spans="2:11">
+    <row r="47" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
         <v>109</v>
       </c>
@@ -2178,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="9:11">
+    <row r="48" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I48" s="5" t="s">
         <v>111</v>
       </c>
@@ -2189,7 +1593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="9:12">
+    <row r="49" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I49" s="5" t="s">
         <v>113</v>
       </c>
@@ -2201,8 +1605,8 @@
       </c>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" s="1" customFormat="1"/>
-    <row r="51" spans="2:11">
+    <row r="50" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>115</v>
       </c>
@@ -2228,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="9:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I52" s="4" t="s">
         <v>117</v>
       </c>
@@ -2240,7 +1644,7 @@
       </c>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="9:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I53" s="4" t="s">
         <v>119</v>
       </c>
@@ -2252,7 +1656,7 @@
       </c>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="9:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I54" s="4" t="s">
         <v>121</v>
       </c>
@@ -2264,7 +1668,7 @@
       </c>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="9:11">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I55" s="4" t="s">
         <v>123</v>
       </c>
@@ -2273,14 +1677,28 @@
       </c>
       <c r="K55">
         <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I56" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K56">
+        <v>5</v>
+      </c>
+      <c r="L56" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I1:M1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
   <si>
     <t>##var</t>
   </si>
@@ -494,6 +494,22 @@
   </si>
   <si>
     <t>1是成功，0是失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON_TRICARD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_TRICARD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三选一开始</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三选一结束</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -592,11 +608,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -874,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -917,13 +933,13 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1680,10 +1696,10 @@
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I56" s="7" t="s">
+      <c r="I56" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="J56" s="6" t="s">
         <v>126</v>
       </c>
       <c r="K56">
@@ -1691,6 +1707,28 @@
       </c>
       <c r="L56" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I57" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I58" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K58">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="142">
   <si>
     <t>##var</t>
   </si>
@@ -245,9 +245,6 @@
     <t>解锁武器（战斗中）</t>
   </si>
   <si>
-    <t>WEAPONLEVEL</t>
-  </si>
-  <si>
     <t>武器等级（战斗前）</t>
   </si>
   <si>
@@ -325,9 +322,6 @@
     </r>
   </si>
   <si>
-    <t>Enums.Card.EffectsType</t>
-  </si>
-  <si>
     <t>卡组效果类型</t>
   </si>
   <si>
@@ -512,12 +506,73 @@
     <t>三选一结束</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Enums.Card.EffectsType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PGRADE</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器解锁卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPONUNLOCK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enums.Card.Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPONLEVEL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器预装备（战斗前）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPONPREEQUIP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁武器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,6 +590,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -589,7 +652,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -613,6 +676,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -890,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1283,11 +1352,11 @@
       </c>
     </row>
     <row r="24" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="K24" s="1">
         <v>2</v>
@@ -1295,10 +1364,10 @@
     </row>
     <row r="25" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="K25" s="1">
         <v>3</v>
@@ -1306,10 +1375,10 @@
     </row>
     <row r="26" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="K26" s="1">
         <v>4</v>
@@ -1317,10 +1386,10 @@
     </row>
     <row r="27" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="K27" s="1">
         <v>5</v>
@@ -1328,409 +1397,490 @@
     </row>
     <row r="28" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="K28" s="1">
         <v>6</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="K29" s="1">
         <v>7</v>
       </c>
       <c r="L29" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K30" s="1">
+        <v>8</v>
+      </c>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I32" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I33" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I34" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I35" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J36" s="4" t="s">
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I38" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K38">
+        <v>6</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="K36">
-        <v>5</v>
-      </c>
-      <c r="L36" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="38" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" s="5" t="s">
+      <c r="D40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J40" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I39" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="K39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I40" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="K40" s="1">
-        <v>2</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K42" s="1">
+        <v>2</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I43" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K43" s="1">
+        <v>3</v>
+      </c>
+      <c r="L43" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J41" s="5" t="s">
+    </row>
+    <row r="44" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K41" s="1">
-        <v>3</v>
-      </c>
-      <c r="L41" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="4" t="s">
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I46" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="J46" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43" s="4" t="s">
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I47" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I49" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J49" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I44" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44" s="4"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I45" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K45">
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I50" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I51" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K51" s="1">
         <v>2</v>
       </c>
-      <c r="L45" s="4"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="L46" s="4"/>
-    </row>
-    <row r="47" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G47" s="5" t="s">
+      <c r="L51" s="5"/>
+    </row>
+    <row r="52" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I53" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J53" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I48" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I49" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="K49" s="1">
-        <v>2</v>
-      </c>
-      <c r="L49" s="5"/>
-    </row>
-    <row r="50" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B51" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" t="b">
-        <v>1</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I52" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52" s="4"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I53" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="K53">
-        <v>2</v>
-      </c>
-      <c r="L53" s="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I54" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L54" s="4"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I55" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I56" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K56">
+        <v>3</v>
+      </c>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I57" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K57">
         <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I56" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K56">
-        <v>5</v>
-      </c>
-      <c r="L56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I57" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K57">
-        <v>6</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I58" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="K58">
+        <v>5</v>
+      </c>
+      <c r="L58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I59" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I60" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J60" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="J58" s="6" t="s">
+      <c r="K60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="K58">
-        <v>7</v>
-      </c>
-    </row>
+      <c r="D62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I63" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I64" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K64" s="1">
+        <v>2</v>
+      </c>
+      <c r="L64" s="5"/>
+    </row>
+    <row r="65" spans="9:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="9:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I1:M1"/>

--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="149">
   <si>
     <t>##var</t>
   </si>
@@ -183,6 +183,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -193,6 +194,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -277,6 +279,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -287,6 +290,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -305,6 +309,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -315,6 +320,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -336,6 +342,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -346,6 +353,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -565,6 +573,73 @@
   </si>
   <si>
     <t>武器id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums.Bullet.TrackType</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹跟踪类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ULL</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不跟踪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LERP</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线跟踪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -584,12 +659,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -652,7 +729,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -674,13 +751,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -959,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1002,13 +1082,13 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1352,7 +1432,7 @@
       </c>
     </row>
     <row r="24" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="8" t="s">
         <v>137</v>
       </c>
       <c r="J24" s="5" t="s">
@@ -1424,10 +1504,10 @@
       </c>
     </row>
     <row r="30" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="8" t="s">
         <v>138</v>
       </c>
       <c r="K30" s="1">
@@ -1437,7 +1517,7 @@
     </row>
     <row r="31" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -1533,16 +1613,16 @@
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="7" t="s">
         <v>140</v>
       </c>
       <c r="K38">
         <v>6</v>
       </c>
-      <c r="L38" s="8" t="s">
+      <c r="L38" s="7" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1827,10 +1907,10 @@
       </c>
     </row>
     <row r="62" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="8" t="s">
         <v>131</v>
       </c>
       <c r="D62" s="1" t="b">
@@ -1853,10 +1933,10 @@
       </c>
     </row>
     <row r="63" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I63" s="9" t="s">
+      <c r="I63" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="J63" s="9" t="s">
+      <c r="J63" s="8" t="s">
         <v>133</v>
       </c>
       <c r="K63" s="1">
@@ -1864,10 +1944,10 @@
       </c>
     </row>
     <row r="64" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I64" s="9" t="s">
+      <c r="I64" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J64" s="9" t="s">
+      <c r="J64" s="8" t="s">
         <v>134</v>
       </c>
       <c r="K64" s="1">
@@ -1875,12 +1955,49 @@
       </c>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="9:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="9:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B67" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I68" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I1:M1"/>

--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="155">
   <si>
     <t>##var</t>
   </si>
@@ -576,6 +576,56 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>子弹跟踪类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ULL</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不跟踪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LERP</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线跟踪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>E</t>
     </r>
@@ -593,11 +643,24 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>子弹跟踪类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
+    <r>
+      <t>Enums.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bullet.Container</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹父物体</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -613,17 +676,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ULL</t>
+      <t>ORMAL</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不跟踪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>S</t>
+      <t>P</t>
     </r>
     <r>
       <rPr>
@@ -634,12 +693,16 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>LERP</t>
+      <t>LAYER</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>曲线跟踪</t>
+    <t>星球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1039,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1963,25 +2026,25 @@
     <row r="66" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E67" t="b">
-        <v>1</v>
-      </c>
-      <c r="G67" s="4" t="s">
+      <c r="I67" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="I67" s="10" t="s">
+      <c r="J67" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="J67" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="K67" s="1">
         <v>0</v>
@@ -1989,14 +2052,68 @@
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I68" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J68" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="J68" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="K68" s="1">
         <v>1</v>
       </c>
+    </row>
+    <row r="70" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I71" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I72" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K72" s="1">
+        <v>2</v>
+      </c>
+      <c r="L72" s="5"/>
+    </row>
+    <row r="73" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="L73" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="157">
   <si>
     <t>##var</t>
   </si>
@@ -643,6 +643,52 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>子弹父物体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ORMAL</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LAYER</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>Enums.</t>
     </r>
@@ -660,49 +706,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>子弹父物体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ORMAL</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LAYER</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>星球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常</t>
+    <t>ENEMY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1102,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2063,10 +2071,10 @@
     </row>
     <row r="70" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="D70" s="1" t="b">
         <v>0</v>
@@ -2089,10 +2097,10 @@
     </row>
     <row r="71" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I71" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K71" s="1">
         <v>1</v>
@@ -2100,10 +2108,10 @@
     </row>
     <row r="72" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I72" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J72" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="K72" s="1">
         <v>2</v>
@@ -2111,9 +2119,21 @@
       <c r="L72" s="5"/>
     </row>
     <row r="73" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
+      <c r="I73" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="K73" s="1">
+        <v>3</v>
+      </c>
       <c r="L73" s="5"/>
+    </row>
+    <row r="74" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="L74" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/_ConfigExcels/Datas/__enums__.xlsx
+++ b/_ConfigExcels/Datas/__enums__.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="161">
   <si>
     <t>##var</t>
   </si>
@@ -711,6 +711,22 @@
   </si>
   <si>
     <t>敌人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LASER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>镭射跟踪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYERWEAPON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家武器</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -828,11 +844,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1110,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1153,13 +1169,13 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2048,10 +2064,10 @@
       <c r="G67" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I67" s="10" t="s">
+      <c r="I67" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="J67" s="10" t="s">
+      <c r="J67" s="9" t="s">
         <v>145</v>
       </c>
       <c r="K67" s="1">
@@ -2059,7 +2075,7 @@
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I68" s="10" t="s">
+      <c r="I68" s="9" t="s">
         <v>146</v>
       </c>
       <c r="J68" s="5" t="s">
@@ -2069,71 +2085,94 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="5" t="s">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I69" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K69" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D70" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G70" s="5" t="s">
+      <c r="D71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I71" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J70" s="5" t="s">
+      <c r="J71" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I71" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I72" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K72" s="1">
-        <v>2</v>
-      </c>
-      <c r="L72" s="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I73" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K73" s="1">
+        <v>2</v>
+      </c>
+      <c r="L73" s="5"/>
+    </row>
+    <row r="74" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I74" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="J73" s="5" t="s">
+      <c r="J74" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="K73" s="1">
+      <c r="K74" s="1">
         <v>3</v>
       </c>
-      <c r="L73" s="5"/>
-    </row>
-    <row r="74" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
       <c r="L74" s="5"/>
+    </row>
+    <row r="75" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I75" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K75" s="1">
+        <v>4</v>
+      </c>
+      <c r="L75" s="5"/>
+    </row>
+    <row r="76" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="L76" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
